--- a/biology/Zoologie/Galloanserae/Galloanserae.xlsx
+++ b/biology/Zoologie/Galloanserae/Galloanserae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Galloansérés (Galloanserae) sont un super-ordre d'Oiseaux. Selon la taxinomie Sibley-Ahlquist, la lignée des Galloansérés[1] a depuis longtemps divergé des autres lignées de Néognathes dont elle constitue la base.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Galloansérés (Galloanserae) sont un super-ordre d'Oiseaux. Selon la taxinomie Sibley-Ahlquist, la lignée des Galloansérés a depuis longtemps divergé des autres lignées de Néognathes dont elle constitue la base.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le super-ordre des Galloansérés a été créé en 1988 par les ornithologues américains Charles Gald Sibley (1917-1998), Jon Edward Ahlquist (1944-2020) et Burt Monroe (1930-1994)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le super-ordre des Galloansérés a été créé en 1988 par les ornithologues américains Charles Gald Sibley (1917-1998), Jon Edward Ahlquist (1944-2020) et Burt Monroe (1930-1994).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (5 août 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (5 août 2021) :
 Anseriformes Wagler, 1831
 Galliformes Temminck, 1820</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur nom est formé de « gallo » pour les Galliformes et « anserae » pour les Ansériformes.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Charles G. Sibley, Jon E. Ahlquist et Burt L. Monroe Jr., « A Classification of the Living Birds of the World Based on Dna-Dna Hybridization Studies », The Auk, Washington, AOS, vol. 105, no 3,‎ juillet 1988, p. 409–423 (ISSN 0004-8038 et 1938-4254, OCLC 636759596 et 1518634, BNF 37574357, JSTOR 4087435, lire en ligne)</t>
         </is>
